--- a/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5383CD6-38E4-426D-AF81-0F4458DA9D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F712B-1755-470A-98FA-BD700F1C7E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Omega</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Steprule</t>
   </si>
   <si>
-    <t>Nullhypothesis: (MeanGap)_LR &lt;= (MeanGap)_Naive</t>
-  </si>
-  <si>
     <t>unable to reject</t>
-  </si>
-  <si>
-    <t>NOCH NICHT GEMACHT</t>
   </si>
   <si>
     <t>Steprules (x,y)</t>
@@ -258,6 +252,9 @@
   </si>
   <si>
     <t>6,5</t>
+  </si>
+  <si>
+    <t>Nullhypothesis: (MeanGap)_LR &gt; (MeanGap)_Naive</t>
   </si>
 </sst>
 </file>
@@ -675,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13:S42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +698,7 @@
     <col min="19" max="19" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -754,10 +751,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -804,7 +801,7 @@
         <v>248.49909</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>600</v>
       </c>
@@ -854,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>600</v>
       </c>
@@ -904,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>600</v>
       </c>
@@ -954,13 +951,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>600</v>
       </c>
@@ -1007,10 +1001,10 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>600</v>
       </c>
@@ -1057,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1110,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -1157,7 +1151,7 @@
         <v>248.77495999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>600</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>248.77495999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>600</v>
       </c>
@@ -1248,13 +1242,13 @@
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>600</v>
       </c>
@@ -1298,7 +1292,7 @@
         <v>248.77495999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>600</v>
       </c>
@@ -1345,13 +1339,13 @@
         <v>0.05</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1398,13 +1392,13 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>600</v>
       </c>
@@ -1448,13 +1442,13 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>600</v>
       </c>
@@ -1498,10 +1492,10 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1548,10 +1542,10 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1598,10 +1592,10 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1648,10 +1642,10 @@
         <v>239.38435000000001</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1701,10 +1695,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1751,10 +1745,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1801,10 +1795,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1851,10 +1845,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1901,10 +1895,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1951,10 +1945,10 @@
         <v>245.72631000000001</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -2004,10 +1998,10 @@
         <v>247.42953</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -2054,10 +2048,10 @@
         <v>247.42953</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -2104,10 +2098,10 @@
         <v>247.42953</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2154,10 +2148,10 @@
         <v>247.42953</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2204,10 +2198,10 @@
         <v>247.42953</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -2254,10 +2248,10 @@
         <v>247.42953</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -2307,10 +2301,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -2357,10 +2351,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -2407,10 +2401,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
@@ -2457,10 +2451,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -2507,10 +2501,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -2557,10 +2551,10 @@
         <v>249.15228999999999</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -2610,10 +2604,10 @@
         <v>244.46824000000001</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -2660,10 +2654,10 @@
         <v>244.46824000000001</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -2710,10 +2704,10 @@
         <v>244.46824000000001</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2760,10 +2754,10 @@
         <v>244.46824000000001</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -2810,10 +2804,10 @@
         <v>244.46824000000001</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">

--- a/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F712B-1755-470A-98FA-BD700F1C7E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395B100-CE3F-4F84-8ED7-B268BE71BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,10 +1018,11 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.107E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>1.2177177027362731E-2</v>
       </c>
       <c r="H7">
         <v>7.1000000000000002E-4</v>
@@ -1030,19 +1031,20 @@
         <v>251.56241</v>
       </c>
       <c r="J7">
-        <v>251.27977000000001</v>
+        <v>251.56241</v>
       </c>
       <c r="K7">
-        <v>-1.1199999999999999E-3</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[Obj. Naive]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1270</v>
       </c>
       <c r="M7">
-        <v>3626</v>
+        <v>248</v>
       </c>
       <c r="N7">
-        <v>1.9533799999999999</v>
+        <v>0.84111000000000002</v>
       </c>
       <c r="O7">
         <v>248.49909</v>

--- a/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
+++ b/Results/Final Results/Samples/600Scen/Results_Sample600_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\600Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395B100-CE3F-4F84-8ED7-B268BE71BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19856A71-8BA4-4D20-B351-0607057B3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Omega</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Nullhypothesis: (MeanGap)_LR &gt; (MeanGap)_Naive</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1647,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1700,7 +1703,7 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1750,7 +1753,7 @@
         <v>28</v>
       </c>
       <c r="S21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -2609,7 +2612,7 @@
         <v>45</v>
       </c>
       <c r="S38" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -2709,7 +2712,7 @@
         <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -2759,7 +2762,7 @@
         <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
@@ -2809,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
